--- a/To_Jake/Rigorous_plan.xlsx
+++ b/To_Jake/Rigorous_plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="281" documentId="11_0DCA1BE03060B47335904A28D10CE1305AD52F61" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{FF7E01F0-5463-4306-A445-16883DFFAD1F}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="11_0DCA1BE03060B47335904A28D10CE1305AD52F61" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{30B02B6F-E345-4758-A8BE-CCC454FC94D4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-270" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1865,8 +1865,8 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5114957" cy="696729"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -1954,7 +1954,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -3872,10 +3872,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10375034-02B2-C040-B049-0AE7B582D240}">
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6967,10 +6967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EDC297-FC40-406F-B1FA-2EED404093FE}">
-  <dimension ref="A3:C3"/>
+  <dimension ref="A3:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6984,6 +6984,17 @@
       </c>
       <c r="C3" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
